--- a/수행 계획.xlsx
+++ b/수행 계획.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hs\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\CT\Capstone-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>1주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,11 +76,6 @@
   <si>
     <t>시스템
 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템
-설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,6 +92,16 @@
     <t xml:space="preserve">          월
 활동
 분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템
+설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템
+구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,18 +256,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,14 +275,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,6 +305,353 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="762000"/>
+          <a:ext cx="1019175" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1171575"/>
+          <a:ext cx="771525" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="1609725"/>
+          <a:ext cx="4400550" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="2028826"/>
+          <a:ext cx="4400550" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="2438400"/>
+          <a:ext cx="504825" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277101" y="2428876"/>
+          <a:ext cx="762000" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,57 +946,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="4" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="4" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="4" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="4" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="2" t="s">
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,10 +1081,10 @@
       <c r="AC2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="3"/>
+      <c r="AD2" s="9"/>
     </row>
     <row r="3" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1"/>
@@ -760,11 +1115,13 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="AD3" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
+      <c r="A4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -794,11 +1151,13 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AD4" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -828,11 +1187,13 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AD5" s="10">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
+      <c r="A6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -862,7 +1223,45 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AD6" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="10">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -879,5 +1278,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>